--- a/test_files/six_membered_substrate_suzuki.xlsx
+++ b/test_files/six_membered_substrate_suzuki.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">ΔGRRS(TSRE)</t>
   </si>
   <si>
-    <t xml:space="preserve">ΔGRRS(RXN)</t>
+    <t xml:space="preserve">Product</t>
   </si>
   <si>
     <t xml:space="preserve">0A000</t>
@@ -343,11 +343,11 @@
   </sheetPr>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
